--- a/code_cm/check_output_cm.xlsx
+++ b/code_cm/check_output_cm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O701"/>
+  <dimension ref="A1:P701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sum_k</t>
+          <t>shift_start</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>k_worked</t>
         </is>
       </c>
     </row>
@@ -558,7 +563,12 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -611,6 +621,11 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,7 +675,12 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -711,7 +731,12 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -762,7 +787,12 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -813,7 +843,12 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -864,7 +899,12 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -915,7 +955,12 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -966,7 +1011,12 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1017,7 +1067,12 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1068,7 +1123,12 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1121,6 +1181,11 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1170,7 +1235,12 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1221,7 +1291,12 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1274,6 +1349,11 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1323,7 +1403,12 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[4, 6, 5]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1374,7 +1459,12 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1425,7 +1515,12 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[4, 6, 5]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1476,7 +1571,12 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1527,7 +1627,12 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1578,7 +1683,12 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1629,7 +1739,12 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1680,7 +1795,12 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1733,6 +1853,11 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1782,7 +1907,12 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1833,7 +1963,12 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[6, 5, 4]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1884,7 +2019,12 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1935,7 +2075,12 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1986,7 +2131,12 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[6, 5, 4]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2037,7 +2187,12 @@
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2088,7 +2243,12 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[6, 5, 4]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2141,6 +2301,11 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2190,7 +2355,12 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2241,7 +2411,12 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[0, 2, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2292,7 +2467,12 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[0, 2, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2343,7 +2523,12 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2396,6 +2581,11 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2445,7 +2635,12 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2496,7 +2691,12 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2547,7 +2747,12 @@
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2598,7 +2803,12 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2649,7 +2859,12 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2702,6 +2917,11 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2751,7 +2971,12 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[0, 1, 3, 2]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2802,7 +3027,12 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2853,7 +3083,12 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2904,7 +3139,12 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2955,7 +3195,12 @@
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[1, 3, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3006,7 +3251,12 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[1, 3, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3057,7 +3307,12 @@
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3108,7 +3363,12 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3161,6 +3421,11 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3210,7 +3475,12 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[0, 1, 3, 2]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3261,7 +3531,12 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[6, 5, 4]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3312,7 +3587,12 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3363,7 +3643,12 @@
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[0, 2, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3414,7 +3699,12 @@
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[6, 5, 4]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3465,7 +3755,12 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3516,7 +3811,12 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3569,6 +3869,11 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3618,7 +3923,12 @@
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 0]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3669,7 +3979,12 @@
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[0, 2, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3720,7 +4035,12 @@
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3771,7 +4091,12 @@
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3822,7 +4147,12 @@
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3873,7 +4203,12 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3924,7 +4259,12 @@
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3977,6 +4317,11 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4026,7 +4371,12 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4077,7 +4427,12 @@
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4130,6 +4485,11 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4179,7 +4539,12 @@
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4230,7 +4595,12 @@
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4281,7 +4651,12 @@
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4332,7 +4707,12 @@
         <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4383,7 +4763,12 @@
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[1, 2, 0, 3]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4434,7 +4819,12 @@
         <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 0]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4485,7 +4875,12 @@
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[2, 0, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4536,7 +4931,12 @@
         <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -4587,7 +4987,12 @@
         <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[3, 0, 1, 2]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -4638,7 +5043,12 @@
         <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -4691,6 +5101,11 @@
       <c r="O83" t="n">
         <v>0</v>
       </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4740,7 +5155,12 @@
         <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -4791,7 +5211,12 @@
         <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -4842,7 +5267,12 @@
         <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4893,7 +5323,12 @@
         <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4944,7 +5379,12 @@
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4997,6 +5437,11 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5046,7 +5491,12 @@
         <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[2, 0, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -5097,7 +5547,12 @@
         <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[0, 2, 3, 1]</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -5148,7 +5603,12 @@
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[3, 0, 1, 2]</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -5199,7 +5659,12 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -5252,6 +5717,11 @@
       <c r="O94" t="n">
         <v>0</v>
       </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5301,7 +5771,12 @@
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[1, 2, 0, 3]</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -5352,7 +5827,12 @@
         <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[1, 0, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -5403,7 +5883,12 @@
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -5454,7 +5939,12 @@
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -5505,7 +5995,12 @@
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -5556,7 +6051,12 @@
         <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[6, 4, 5]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -5607,7 +6107,12 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[2, 0, 1, 3]</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -5660,6 +6165,11 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5709,7 +6219,12 @@
         <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[2, 3, 0, 1]</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -5760,7 +6275,12 @@
         <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -5811,7 +6331,12 @@
         <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -5862,7 +6387,12 @@
         <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -5913,7 +6443,12 @@
         <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -5964,7 +6499,12 @@
         <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 0]</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -6015,7 +6555,12 @@
         <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -6066,7 +6611,12 @@
         <v>1</v>
       </c>
       <c r="O110" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -6119,6 +6669,11 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6168,7 +6723,12 @@
         <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -6219,7 +6779,12 @@
         <v>1</v>
       </c>
       <c r="O113" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[5, 4, 6]</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -6272,6 +6837,11 @@
       <c r="O114" t="n">
         <v>0</v>
       </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6321,7 +6891,12 @@
         <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -6372,7 +6947,12 @@
         <v>1</v>
       </c>
       <c r="O116" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[1, 0, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -6423,7 +7003,12 @@
         <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -6474,7 +7059,12 @@
         <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[1, 2, 0, 3]</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -6525,7 +7115,12 @@
         <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -6576,7 +7171,12 @@
         <v>1</v>
       </c>
       <c r="O120" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -6627,7 +7227,12 @@
         <v>1</v>
       </c>
       <c r="O121" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -6678,7 +7283,12 @@
         <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -6729,7 +7339,12 @@
         <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -6782,6 +7397,11 @@
       <c r="O124" t="n">
         <v>0</v>
       </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6831,7 +7451,12 @@
         <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -6882,7 +7507,12 @@
         <v>1</v>
       </c>
       <c r="O126" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -6933,7 +7563,12 @@
         <v>1</v>
       </c>
       <c r="O127" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[3, 0, 1, 2]</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -6984,7 +7619,12 @@
         <v>1</v>
       </c>
       <c r="O128" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -7037,6 +7677,11 @@
       <c r="O129" t="n">
         <v>0</v>
       </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7086,7 +7731,12 @@
         <v>1</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -7137,7 +7787,12 @@
         <v>1</v>
       </c>
       <c r="O131" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -7188,7 +7843,12 @@
         <v>1</v>
       </c>
       <c r="O132" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[1, 0, 3, 2]</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -7239,7 +7899,12 @@
         <v>1</v>
       </c>
       <c r="O133" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[5, 6, 4]</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -7290,7 +7955,12 @@
         <v>1</v>
       </c>
       <c r="O134" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[4, 6, 5]</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -7341,7 +8011,12 @@
         <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[1, 0, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -7392,7 +8067,12 @@
         <v>1</v>
       </c>
       <c r="O136" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -7445,6 +8125,11 @@
       <c r="O137" t="n">
         <v>0</v>
       </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7494,7 +8179,12 @@
         <v>1</v>
       </c>
       <c r="O138" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -7545,7 +8235,12 @@
         <v>1</v>
       </c>
       <c r="O139" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[4, 5, 6]</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -7596,7 +8291,12 @@
         <v>1</v>
       </c>
       <c r="O140" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[3, 1, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -7647,7 +8347,12 @@
         <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[2, 3, 1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -7698,6 +8403,11 @@
       <c r="O142" t="n">
         <v>0</v>
       </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7747,6 +8457,11 @@
       <c r="O143" t="n">
         <v>0</v>
       </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7796,6 +8511,11 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7845,6 +8565,11 @@
       <c r="O145" t="n">
         <v>0</v>
       </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7894,6 +8619,11 @@
       <c r="O146" t="n">
         <v>0</v>
       </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7943,6 +8673,11 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7992,6 +8727,11 @@
       <c r="O148" t="n">
         <v>0</v>
       </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8041,6 +8781,11 @@
       <c r="O149" t="n">
         <v>0</v>
       </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8090,6 +8835,11 @@
       <c r="O150" t="n">
         <v>0</v>
       </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8139,6 +8889,11 @@
       <c r="O151" t="n">
         <v>0</v>
       </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8188,6 +8943,11 @@
       <c r="O152" t="n">
         <v>0</v>
       </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8237,6 +8997,11 @@
       <c r="O153" t="n">
         <v>0</v>
       </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8286,6 +9051,11 @@
       <c r="O154" t="n">
         <v>0</v>
       </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8335,6 +9105,11 @@
       <c r="O155" t="n">
         <v>0</v>
       </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8384,6 +9159,11 @@
       <c r="O156" t="n">
         <v>0</v>
       </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8433,6 +9213,11 @@
       <c r="O157" t="n">
         <v>0</v>
       </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8482,6 +9267,11 @@
       <c r="O158" t="n">
         <v>0</v>
       </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8531,6 +9321,11 @@
       <c r="O159" t="n">
         <v>0</v>
       </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8580,6 +9375,11 @@
       <c r="O160" t="n">
         <v>0</v>
       </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8629,6 +9429,11 @@
       <c r="O161" t="n">
         <v>0</v>
       </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8678,6 +9483,11 @@
       <c r="O162" t="n">
         <v>0</v>
       </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8727,6 +9537,11 @@
       <c r="O163" t="n">
         <v>0</v>
       </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8776,6 +9591,11 @@
       <c r="O164" t="n">
         <v>0</v>
       </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8825,6 +9645,11 @@
       <c r="O165" t="n">
         <v>0</v>
       </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8874,6 +9699,11 @@
       <c r="O166" t="n">
         <v>0</v>
       </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8923,6 +9753,11 @@
       <c r="O167" t="n">
         <v>0</v>
       </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8972,6 +9807,11 @@
       <c r="O168" t="n">
         <v>0</v>
       </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9021,6 +9861,11 @@
       <c r="O169" t="n">
         <v>0</v>
       </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9070,6 +9915,11 @@
       <c r="O170" t="n">
         <v>0</v>
       </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9119,6 +9969,11 @@
       <c r="O171" t="n">
         <v>0</v>
       </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9168,6 +10023,11 @@
       <c r="O172" t="n">
         <v>0</v>
       </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9217,6 +10077,11 @@
       <c r="O173" t="n">
         <v>0</v>
       </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9266,6 +10131,11 @@
       <c r="O174" t="n">
         <v>0</v>
       </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9315,6 +10185,11 @@
       <c r="O175" t="n">
         <v>0</v>
       </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9364,6 +10239,11 @@
       <c r="O176" t="n">
         <v>0</v>
       </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9413,6 +10293,11 @@
       <c r="O177" t="n">
         <v>0</v>
       </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9462,6 +10347,11 @@
       <c r="O178" t="n">
         <v>0</v>
       </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9511,6 +10401,11 @@
       <c r="O179" t="n">
         <v>0</v>
       </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9560,6 +10455,11 @@
       <c r="O180" t="n">
         <v>0</v>
       </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9609,6 +10509,11 @@
       <c r="O181" t="n">
         <v>0</v>
       </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9658,6 +10563,11 @@
       <c r="O182" t="n">
         <v>0</v>
       </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9707,6 +10617,11 @@
       <c r="O183" t="n">
         <v>0</v>
       </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9756,6 +10671,11 @@
       <c r="O184" t="n">
         <v>0</v>
       </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9805,6 +10725,11 @@
       <c r="O185" t="n">
         <v>0</v>
       </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9854,6 +10779,11 @@
       <c r="O186" t="n">
         <v>0</v>
       </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9903,6 +10833,11 @@
       <c r="O187" t="n">
         <v>0</v>
       </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9952,6 +10887,11 @@
       <c r="O188" t="n">
         <v>0</v>
       </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10001,6 +10941,11 @@
       <c r="O189" t="n">
         <v>0</v>
       </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10050,6 +10995,11 @@
       <c r="O190" t="n">
         <v>0</v>
       </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10099,6 +11049,11 @@
       <c r="O191" t="n">
         <v>0</v>
       </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10148,6 +11103,11 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10197,6 +11157,11 @@
       <c r="O193" t="n">
         <v>0</v>
       </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10246,6 +11211,11 @@
       <c r="O194" t="n">
         <v>0</v>
       </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10295,6 +11265,11 @@
       <c r="O195" t="n">
         <v>0</v>
       </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10344,6 +11319,11 @@
       <c r="O196" t="n">
         <v>0</v>
       </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10393,6 +11373,11 @@
       <c r="O197" t="n">
         <v>0</v>
       </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10442,6 +11427,11 @@
       <c r="O198" t="n">
         <v>0</v>
       </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10491,6 +11481,11 @@
       <c r="O199" t="n">
         <v>0</v>
       </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10540,6 +11535,11 @@
       <c r="O200" t="n">
         <v>0</v>
       </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10589,6 +11589,11 @@
       <c r="O201" t="n">
         <v>0</v>
       </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10638,6 +11643,11 @@
       <c r="O202" t="n">
         <v>0</v>
       </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10687,6 +11697,11 @@
       <c r="O203" t="n">
         <v>0</v>
       </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10736,6 +11751,11 @@
       <c r="O204" t="n">
         <v>0</v>
       </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10785,6 +11805,11 @@
       <c r="O205" t="n">
         <v>0</v>
       </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10834,6 +11859,11 @@
       <c r="O206" t="n">
         <v>0</v>
       </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10883,6 +11913,11 @@
       <c r="O207" t="n">
         <v>0</v>
       </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10932,6 +11967,11 @@
       <c r="O208" t="n">
         <v>0</v>
       </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10981,6 +12021,11 @@
       <c r="O209" t="n">
         <v>0</v>
       </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11030,6 +12075,11 @@
       <c r="O210" t="n">
         <v>0</v>
       </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11079,6 +12129,11 @@
       <c r="O211" t="n">
         <v>0</v>
       </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11128,6 +12183,11 @@
       <c r="O212" t="n">
         <v>0</v>
       </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11177,6 +12237,11 @@
       <c r="O213" t="n">
         <v>0</v>
       </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11226,6 +12291,11 @@
       <c r="O214" t="n">
         <v>0</v>
       </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11275,6 +12345,11 @@
       <c r="O215" t="n">
         <v>0</v>
       </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11324,6 +12399,11 @@
       <c r="O216" t="n">
         <v>0</v>
       </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11373,6 +12453,11 @@
       <c r="O217" t="n">
         <v>0</v>
       </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11422,6 +12507,11 @@
       <c r="O218" t="n">
         <v>0</v>
       </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11471,6 +12561,11 @@
       <c r="O219" t="n">
         <v>0</v>
       </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11520,6 +12615,11 @@
       <c r="O220" t="n">
         <v>0</v>
       </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11569,6 +12669,11 @@
       <c r="O221" t="n">
         <v>0</v>
       </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11618,6 +12723,11 @@
       <c r="O222" t="n">
         <v>0</v>
       </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11667,6 +12777,11 @@
       <c r="O223" t="n">
         <v>0</v>
       </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11716,6 +12831,11 @@
       <c r="O224" t="n">
         <v>0</v>
       </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11765,6 +12885,11 @@
       <c r="O225" t="n">
         <v>0</v>
       </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11814,6 +12939,11 @@
       <c r="O226" t="n">
         <v>0</v>
       </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11863,6 +12993,11 @@
       <c r="O227" t="n">
         <v>0</v>
       </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11912,6 +13047,11 @@
       <c r="O228" t="n">
         <v>0</v>
       </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11961,6 +13101,11 @@
       <c r="O229" t="n">
         <v>0</v>
       </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12010,6 +13155,11 @@
       <c r="O230" t="n">
         <v>0</v>
       </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12059,6 +13209,11 @@
       <c r="O231" t="n">
         <v>0</v>
       </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12108,6 +13263,11 @@
       <c r="O232" t="n">
         <v>0</v>
       </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12157,6 +13317,11 @@
       <c r="O233" t="n">
         <v>0</v>
       </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12206,6 +13371,11 @@
       <c r="O234" t="n">
         <v>0</v>
       </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12255,6 +13425,11 @@
       <c r="O235" t="n">
         <v>0</v>
       </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12304,6 +13479,11 @@
       <c r="O236" t="n">
         <v>0</v>
       </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12353,6 +13533,11 @@
       <c r="O237" t="n">
         <v>0</v>
       </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12402,6 +13587,11 @@
       <c r="O238" t="n">
         <v>0</v>
       </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12451,6 +13641,11 @@
       <c r="O239" t="n">
         <v>0</v>
       </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12500,6 +13695,11 @@
       <c r="O240" t="n">
         <v>0</v>
       </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12549,6 +13749,11 @@
       <c r="O241" t="n">
         <v>0</v>
       </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -12598,6 +13803,11 @@
       <c r="O242" t="n">
         <v>0</v>
       </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12647,6 +13857,11 @@
       <c r="O243" t="n">
         <v>0</v>
       </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -12696,6 +13911,11 @@
       <c r="O244" t="n">
         <v>0</v>
       </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12745,6 +13965,11 @@
       <c r="O245" t="n">
         <v>0</v>
       </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12794,6 +14019,11 @@
       <c r="O246" t="n">
         <v>0</v>
       </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12843,6 +14073,11 @@
       <c r="O247" t="n">
         <v>0</v>
       </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12892,6 +14127,11 @@
       <c r="O248" t="n">
         <v>0</v>
       </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12941,6 +14181,11 @@
       <c r="O249" t="n">
         <v>0</v>
       </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12990,6 +14235,11 @@
       <c r="O250" t="n">
         <v>0</v>
       </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13039,6 +14289,11 @@
       <c r="O251" t="n">
         <v>0</v>
       </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13088,6 +14343,11 @@
       <c r="O252" t="n">
         <v>0</v>
       </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13137,6 +14397,11 @@
       <c r="O253" t="n">
         <v>0</v>
       </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13186,6 +14451,11 @@
       <c r="O254" t="n">
         <v>0</v>
       </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13235,6 +14505,11 @@
       <c r="O255" t="n">
         <v>0</v>
       </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13284,6 +14559,11 @@
       <c r="O256" t="n">
         <v>0</v>
       </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13333,6 +14613,11 @@
       <c r="O257" t="n">
         <v>0</v>
       </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13382,6 +14667,11 @@
       <c r="O258" t="n">
         <v>0</v>
       </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13431,6 +14721,11 @@
       <c r="O259" t="n">
         <v>0</v>
       </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13480,6 +14775,11 @@
       <c r="O260" t="n">
         <v>0</v>
       </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13529,6 +14829,11 @@
       <c r="O261" t="n">
         <v>0</v>
       </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -13578,6 +14883,11 @@
       <c r="O262" t="n">
         <v>0</v>
       </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13627,6 +14937,11 @@
       <c r="O263" t="n">
         <v>0</v>
       </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13676,6 +14991,11 @@
       <c r="O264" t="n">
         <v>0</v>
       </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13725,6 +15045,11 @@
       <c r="O265" t="n">
         <v>0</v>
       </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13774,6 +15099,11 @@
       <c r="O266" t="n">
         <v>0</v>
       </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13823,6 +15153,11 @@
       <c r="O267" t="n">
         <v>0</v>
       </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13872,6 +15207,11 @@
       <c r="O268" t="n">
         <v>0</v>
       </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13921,6 +15261,11 @@
       <c r="O269" t="n">
         <v>0</v>
       </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13970,6 +15315,11 @@
       <c r="O270" t="n">
         <v>0</v>
       </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14019,6 +15369,11 @@
       <c r="O271" t="n">
         <v>0</v>
       </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14068,6 +15423,11 @@
       <c r="O272" t="n">
         <v>0</v>
       </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14117,6 +15477,11 @@
       <c r="O273" t="n">
         <v>0</v>
       </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14166,6 +15531,11 @@
       <c r="O274" t="n">
         <v>0</v>
       </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14215,6 +15585,11 @@
       <c r="O275" t="n">
         <v>0</v>
       </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14264,6 +15639,11 @@
       <c r="O276" t="n">
         <v>0</v>
       </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14313,6 +15693,11 @@
       <c r="O277" t="n">
         <v>0</v>
       </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14362,6 +15747,11 @@
       <c r="O278" t="n">
         <v>0</v>
       </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14411,6 +15801,11 @@
       <c r="O279" t="n">
         <v>0</v>
       </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14460,6 +15855,11 @@
       <c r="O280" t="n">
         <v>0</v>
       </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14509,6 +15909,11 @@
       <c r="O281" t="n">
         <v>0</v>
       </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -14560,6 +15965,11 @@
       <c r="O282" t="n">
         <v>0</v>
       </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -14611,6 +16021,11 @@
       <c r="O283" t="n">
         <v>0</v>
       </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14662,6 +16077,11 @@
       <c r="O284" t="n">
         <v>0</v>
       </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14713,6 +16133,11 @@
       <c r="O285" t="n">
         <v>0</v>
       </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14764,6 +16189,11 @@
       <c r="O286" t="n">
         <v>0</v>
       </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14815,6 +16245,11 @@
       <c r="O287" t="n">
         <v>0</v>
       </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -14866,6 +16301,11 @@
       <c r="O288" t="n">
         <v>0</v>
       </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14917,6 +16357,11 @@
       <c r="O289" t="n">
         <v>0</v>
       </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14968,6 +16413,11 @@
       <c r="O290" t="n">
         <v>0</v>
       </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15019,6 +16469,11 @@
       <c r="O291" t="n">
         <v>0</v>
       </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15070,6 +16525,11 @@
       <c r="O292" t="n">
         <v>0</v>
       </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15121,6 +16581,11 @@
       <c r="O293" t="n">
         <v>0</v>
       </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15172,6 +16637,11 @@
       <c r="O294" t="n">
         <v>0</v>
       </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15223,6 +16693,11 @@
       <c r="O295" t="n">
         <v>0</v>
       </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15274,6 +16749,11 @@
       <c r="O296" t="n">
         <v>0</v>
       </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15325,6 +16805,11 @@
       <c r="O297" t="n">
         <v>0</v>
       </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15376,6 +16861,11 @@
       <c r="O298" t="n">
         <v>0</v>
       </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15427,6 +16917,11 @@
       <c r="O299" t="n">
         <v>0</v>
       </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15478,6 +16973,11 @@
       <c r="O300" t="n">
         <v>0</v>
       </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -15529,6 +17029,11 @@
       <c r="O301" t="n">
         <v>0</v>
       </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -15580,6 +17085,11 @@
       <c r="O302" t="n">
         <v>0</v>
       </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -15631,6 +17141,11 @@
       <c r="O303" t="n">
         <v>0</v>
       </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -15682,6 +17197,11 @@
       <c r="O304" t="n">
         <v>0</v>
       </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -15733,6 +17253,11 @@
       <c r="O305" t="n">
         <v>0</v>
       </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -15784,6 +17309,11 @@
       <c r="O306" t="n">
         <v>0</v>
       </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -15835,6 +17365,11 @@
       <c r="O307" t="n">
         <v>0</v>
       </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -15886,6 +17421,11 @@
       <c r="O308" t="n">
         <v>0</v>
       </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -15937,6 +17477,11 @@
       <c r="O309" t="n">
         <v>0</v>
       </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -15988,6 +17533,11 @@
       <c r="O310" t="n">
         <v>0</v>
       </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16039,6 +17589,11 @@
       <c r="O311" t="n">
         <v>0</v>
       </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16090,6 +17645,11 @@
       <c r="O312" t="n">
         <v>0</v>
       </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16141,6 +17701,11 @@
       <c r="O313" t="n">
         <v>0</v>
       </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16192,6 +17757,11 @@
       <c r="O314" t="n">
         <v>0</v>
       </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16243,6 +17813,11 @@
       <c r="O315" t="n">
         <v>0</v>
       </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16294,6 +17869,11 @@
       <c r="O316" t="n">
         <v>0</v>
       </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16345,6 +17925,11 @@
       <c r="O317" t="n">
         <v>0</v>
       </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16396,6 +17981,11 @@
       <c r="O318" t="n">
         <v>0</v>
       </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -16447,6 +18037,11 @@
       <c r="O319" t="n">
         <v>0</v>
       </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -16498,6 +18093,11 @@
       <c r="O320" t="n">
         <v>0</v>
       </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -16549,6 +18149,11 @@
       <c r="O321" t="n">
         <v>0</v>
       </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -16600,6 +18205,11 @@
       <c r="O322" t="n">
         <v>0</v>
       </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -16651,6 +18261,11 @@
       <c r="O323" t="n">
         <v>0</v>
       </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -16702,6 +18317,11 @@
       <c r="O324" t="n">
         <v>0</v>
       </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -16753,6 +18373,11 @@
       <c r="O325" t="n">
         <v>0</v>
       </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -16804,6 +18429,11 @@
       <c r="O326" t="n">
         <v>0</v>
       </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -16855,6 +18485,11 @@
       <c r="O327" t="n">
         <v>0</v>
       </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -16906,6 +18541,11 @@
       <c r="O328" t="n">
         <v>0</v>
       </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -16957,6 +18597,11 @@
       <c r="O329" t="n">
         <v>0</v>
       </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -17008,6 +18653,11 @@
       <c r="O330" t="n">
         <v>0</v>
       </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -17059,6 +18709,11 @@
       <c r="O331" t="n">
         <v>0</v>
       </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -17110,6 +18765,11 @@
       <c r="O332" t="n">
         <v>0</v>
       </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -17161,6 +18821,11 @@
       <c r="O333" t="n">
         <v>0</v>
       </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -17212,6 +18877,11 @@
       <c r="O334" t="n">
         <v>0</v>
       </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17263,6 +18933,11 @@
       <c r="O335" t="n">
         <v>0</v>
       </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -17314,6 +18989,11 @@
       <c r="O336" t="n">
         <v>0</v>
       </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -17365,6 +19045,11 @@
       <c r="O337" t="n">
         <v>0</v>
       </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -17416,6 +19101,11 @@
       <c r="O338" t="n">
         <v>0</v>
       </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -17467,6 +19157,11 @@
       <c r="O339" t="n">
         <v>0</v>
       </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -17518,6 +19213,11 @@
       <c r="O340" t="n">
         <v>0</v>
       </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17569,6 +19269,11 @@
       <c r="O341" t="n">
         <v>0</v>
       </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -17620,6 +19325,11 @@
       <c r="O342" t="n">
         <v>0</v>
       </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -17671,6 +19381,11 @@
       <c r="O343" t="n">
         <v>0</v>
       </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -17722,6 +19437,11 @@
       <c r="O344" t="n">
         <v>0</v>
       </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -17773,6 +19493,11 @@
       <c r="O345" t="n">
         <v>0</v>
       </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -17824,6 +19549,11 @@
       <c r="O346" t="n">
         <v>0</v>
       </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17875,6 +19605,11 @@
       <c r="O347" t="n">
         <v>0</v>
       </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17926,6 +19661,11 @@
       <c r="O348" t="n">
         <v>0</v>
       </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17977,6 +19717,11 @@
       <c r="O349" t="n">
         <v>0</v>
       </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -18028,6 +19773,11 @@
       <c r="O350" t="n">
         <v>0</v>
       </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -18079,6 +19829,11 @@
       <c r="O351" t="n">
         <v>0</v>
       </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -18130,6 +19885,11 @@
       <c r="O352" t="n">
         <v>0</v>
       </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -18181,6 +19941,11 @@
       <c r="O353" t="n">
         <v>0</v>
       </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -18232,6 +19997,11 @@
       <c r="O354" t="n">
         <v>0</v>
       </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -18283,6 +20053,11 @@
       <c r="O355" t="n">
         <v>0</v>
       </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -18334,6 +20109,11 @@
       <c r="O356" t="n">
         <v>0</v>
       </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -18385,6 +20165,11 @@
       <c r="O357" t="n">
         <v>0</v>
       </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -18436,6 +20221,11 @@
       <c r="O358" t="n">
         <v>0</v>
       </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -18487,6 +20277,11 @@
       <c r="O359" t="n">
         <v>0</v>
       </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -18538,6 +20333,11 @@
       <c r="O360" t="n">
         <v>0</v>
       </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -18589,6 +20389,11 @@
       <c r="O361" t="n">
         <v>0</v>
       </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -18640,6 +20445,11 @@
       <c r="O362" t="n">
         <v>0</v>
       </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -18691,6 +20501,11 @@
       <c r="O363" t="n">
         <v>0</v>
       </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -18742,6 +20557,11 @@
       <c r="O364" t="n">
         <v>0</v>
       </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -18793,6 +20613,11 @@
       <c r="O365" t="n">
         <v>0</v>
       </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -18844,6 +20669,11 @@
       <c r="O366" t="n">
         <v>0</v>
       </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -18895,6 +20725,11 @@
       <c r="O367" t="n">
         <v>0</v>
       </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -18946,6 +20781,11 @@
       <c r="O368" t="n">
         <v>0</v>
       </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -18997,6 +20837,11 @@
       <c r="O369" t="n">
         <v>0</v>
       </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -19048,6 +20893,11 @@
       <c r="O370" t="n">
         <v>0</v>
       </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -19099,6 +20949,11 @@
       <c r="O371" t="n">
         <v>0</v>
       </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -19150,6 +21005,11 @@
       <c r="O372" t="n">
         <v>0</v>
       </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -19201,6 +21061,11 @@
       <c r="O373" t="n">
         <v>0</v>
       </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -19252,6 +21117,11 @@
       <c r="O374" t="n">
         <v>0</v>
       </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -19303,6 +21173,11 @@
       <c r="O375" t="n">
         <v>0</v>
       </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -19354,6 +21229,11 @@
       <c r="O376" t="n">
         <v>0</v>
       </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -19405,6 +21285,11 @@
       <c r="O377" t="n">
         <v>0</v>
       </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -19456,6 +21341,11 @@
       <c r="O378" t="n">
         <v>0</v>
       </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -19507,6 +21397,11 @@
       <c r="O379" t="n">
         <v>0</v>
       </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -19558,6 +21453,11 @@
       <c r="O380" t="n">
         <v>0</v>
       </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -19609,6 +21509,11 @@
       <c r="O381" t="n">
         <v>0</v>
       </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -19660,6 +21565,11 @@
       <c r="O382" t="n">
         <v>0</v>
       </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -19711,6 +21621,11 @@
       <c r="O383" t="n">
         <v>0</v>
       </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -19762,6 +21677,11 @@
       <c r="O384" t="n">
         <v>0</v>
       </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -19813,6 +21733,11 @@
       <c r="O385" t="n">
         <v>0</v>
       </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -19864,6 +21789,11 @@
       <c r="O386" t="n">
         <v>0</v>
       </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -19915,6 +21845,11 @@
       <c r="O387" t="n">
         <v>0</v>
       </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -19966,6 +21901,11 @@
       <c r="O388" t="n">
         <v>0</v>
       </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -20017,6 +21957,11 @@
       <c r="O389" t="n">
         <v>0</v>
       </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -20068,6 +22013,11 @@
       <c r="O390" t="n">
         <v>0</v>
       </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -20119,6 +22069,11 @@
       <c r="O391" t="n">
         <v>0</v>
       </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -20170,6 +22125,11 @@
       <c r="O392" t="n">
         <v>0</v>
       </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -20221,6 +22181,11 @@
       <c r="O393" t="n">
         <v>0</v>
       </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -20272,6 +22237,11 @@
       <c r="O394" t="n">
         <v>0</v>
       </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -20323,6 +22293,11 @@
       <c r="O395" t="n">
         <v>0</v>
       </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -20374,6 +22349,11 @@
       <c r="O396" t="n">
         <v>0</v>
       </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -20425,6 +22405,11 @@
       <c r="O397" t="n">
         <v>0</v>
       </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -20476,6 +22461,11 @@
       <c r="O398" t="n">
         <v>0</v>
       </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -20527,6 +22517,11 @@
       <c r="O399" t="n">
         <v>0</v>
       </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -20578,6 +22573,11 @@
       <c r="O400" t="n">
         <v>0</v>
       </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -20629,6 +22629,11 @@
       <c r="O401" t="n">
         <v>0</v>
       </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -20680,6 +22685,11 @@
       <c r="O402" t="n">
         <v>0</v>
       </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -20731,6 +22741,11 @@
       <c r="O403" t="n">
         <v>0</v>
       </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -20782,6 +22797,11 @@
       <c r="O404" t="n">
         <v>0</v>
       </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -20833,6 +22853,11 @@
       <c r="O405" t="n">
         <v>0</v>
       </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -20884,6 +22909,11 @@
       <c r="O406" t="n">
         <v>0</v>
       </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -20935,6 +22965,11 @@
       <c r="O407" t="n">
         <v>0</v>
       </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -20986,6 +23021,11 @@
       <c r="O408" t="n">
         <v>0</v>
       </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -21037,6 +23077,11 @@
       <c r="O409" t="n">
         <v>0</v>
       </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -21088,6 +23133,11 @@
       <c r="O410" t="n">
         <v>0</v>
       </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -21139,6 +23189,11 @@
       <c r="O411" t="n">
         <v>0</v>
       </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -21190,6 +23245,11 @@
       <c r="O412" t="n">
         <v>0</v>
       </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -21241,6 +23301,11 @@
       <c r="O413" t="n">
         <v>0</v>
       </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -21292,6 +23357,11 @@
       <c r="O414" t="n">
         <v>0</v>
       </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -21343,6 +23413,11 @@
       <c r="O415" t="n">
         <v>0</v>
       </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -21394,6 +23469,11 @@
       <c r="O416" t="n">
         <v>0</v>
       </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -21445,6 +23525,11 @@
       <c r="O417" t="n">
         <v>0</v>
       </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -21496,6 +23581,11 @@
       <c r="O418" t="n">
         <v>0</v>
       </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -21547,6 +23637,11 @@
       <c r="O419" t="n">
         <v>0</v>
       </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -21598,6 +23693,11 @@
       <c r="O420" t="n">
         <v>0</v>
       </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -21649,6 +23749,11 @@
       <c r="O421" t="n">
         <v>0</v>
       </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -21700,6 +23805,11 @@
       <c r="O422" t="n">
         <v>0</v>
       </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -21751,6 +23861,11 @@
       <c r="O423" t="n">
         <v>0</v>
       </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -21802,6 +23917,11 @@
       <c r="O424" t="n">
         <v>0</v>
       </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -21853,6 +23973,11 @@
       <c r="O425" t="n">
         <v>0</v>
       </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -21904,6 +24029,11 @@
       <c r="O426" t="n">
         <v>0</v>
       </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -21955,6 +24085,11 @@
       <c r="O427" t="n">
         <v>0</v>
       </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -22006,6 +24141,11 @@
       <c r="O428" t="n">
         <v>0</v>
       </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -22057,6 +24197,11 @@
       <c r="O429" t="n">
         <v>0</v>
       </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -22108,6 +24253,11 @@
       <c r="O430" t="n">
         <v>0</v>
       </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -22159,6 +24309,11 @@
       <c r="O431" t="n">
         <v>0</v>
       </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -22210,6 +24365,11 @@
       <c r="O432" t="n">
         <v>0</v>
       </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -22261,6 +24421,11 @@
       <c r="O433" t="n">
         <v>0</v>
       </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -22312,6 +24477,11 @@
       <c r="O434" t="n">
         <v>0</v>
       </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -22363,6 +24533,11 @@
       <c r="O435" t="n">
         <v>0</v>
       </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -22414,6 +24589,11 @@
       <c r="O436" t="n">
         <v>0</v>
       </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -22465,6 +24645,11 @@
       <c r="O437" t="n">
         <v>0</v>
       </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -22516,6 +24701,11 @@
       <c r="O438" t="n">
         <v>0</v>
       </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -22567,6 +24757,11 @@
       <c r="O439" t="n">
         <v>0</v>
       </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -22618,6 +24813,11 @@
       <c r="O440" t="n">
         <v>0</v>
       </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -22669,6 +24869,11 @@
       <c r="O441" t="n">
         <v>0</v>
       </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -22720,6 +24925,11 @@
       <c r="O442" t="n">
         <v>0</v>
       </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -22771,6 +24981,11 @@
       <c r="O443" t="n">
         <v>0</v>
       </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -22822,6 +25037,11 @@
       <c r="O444" t="n">
         <v>0</v>
       </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -22873,6 +25093,11 @@
       <c r="O445" t="n">
         <v>0</v>
       </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -22924,6 +25149,11 @@
       <c r="O446" t="n">
         <v>0</v>
       </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -22975,6 +25205,11 @@
       <c r="O447" t="n">
         <v>0</v>
       </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -23026,6 +25261,11 @@
       <c r="O448" t="n">
         <v>0</v>
       </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -23077,6 +25317,11 @@
       <c r="O449" t="n">
         <v>0</v>
       </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -23128,6 +25373,11 @@
       <c r="O450" t="n">
         <v>0</v>
       </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -23179,6 +25429,11 @@
       <c r="O451" t="n">
         <v>0</v>
       </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -23230,6 +25485,11 @@
       <c r="O452" t="n">
         <v>0</v>
       </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -23281,6 +25541,11 @@
       <c r="O453" t="n">
         <v>0</v>
       </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -23332,6 +25597,11 @@
       <c r="O454" t="n">
         <v>0</v>
       </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -23383,6 +25653,11 @@
       <c r="O455" t="n">
         <v>0</v>
       </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -23434,6 +25709,11 @@
       <c r="O456" t="n">
         <v>0</v>
       </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -23485,6 +25765,11 @@
       <c r="O457" t="n">
         <v>0</v>
       </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -23536,6 +25821,11 @@
       <c r="O458" t="n">
         <v>0</v>
       </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -23587,6 +25877,11 @@
       <c r="O459" t="n">
         <v>0</v>
       </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -23638,6 +25933,11 @@
       <c r="O460" t="n">
         <v>0</v>
       </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -23689,6 +25989,11 @@
       <c r="O461" t="n">
         <v>0</v>
       </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -23740,6 +26045,11 @@
       <c r="O462" t="n">
         <v>0</v>
       </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -23791,6 +26101,11 @@
       <c r="O463" t="n">
         <v>0</v>
       </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -23842,6 +26157,11 @@
       <c r="O464" t="n">
         <v>0</v>
       </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -23893,6 +26213,11 @@
       <c r="O465" t="n">
         <v>0</v>
       </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -23944,6 +26269,11 @@
       <c r="O466" t="n">
         <v>0</v>
       </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -23995,6 +26325,11 @@
       <c r="O467" t="n">
         <v>0</v>
       </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -24046,6 +26381,11 @@
       <c r="O468" t="n">
         <v>0</v>
       </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -24097,6 +26437,11 @@
       <c r="O469" t="n">
         <v>0</v>
       </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -24148,6 +26493,11 @@
       <c r="O470" t="n">
         <v>0</v>
       </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -24199,6 +26549,11 @@
       <c r="O471" t="n">
         <v>0</v>
       </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -24250,6 +26605,11 @@
       <c r="O472" t="n">
         <v>0</v>
       </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -24301,6 +26661,11 @@
       <c r="O473" t="n">
         <v>0</v>
       </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -24352,6 +26717,11 @@
       <c r="O474" t="n">
         <v>0</v>
       </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -24403,6 +26773,11 @@
       <c r="O475" t="n">
         <v>0</v>
       </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -24454,6 +26829,11 @@
       <c r="O476" t="n">
         <v>0</v>
       </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -24505,6 +26885,11 @@
       <c r="O477" t="n">
         <v>0</v>
       </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -24556,6 +26941,11 @@
       <c r="O478" t="n">
         <v>0</v>
       </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -24607,6 +26997,11 @@
       <c r="O479" t="n">
         <v>0</v>
       </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -24658,6 +27053,11 @@
       <c r="O480" t="n">
         <v>0</v>
       </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -24709,6 +27109,11 @@
       <c r="O481" t="n">
         <v>0</v>
       </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -24760,6 +27165,11 @@
       <c r="O482" t="n">
         <v>0</v>
       </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -24811,6 +27221,11 @@
       <c r="O483" t="n">
         <v>0</v>
       </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -24862,6 +27277,11 @@
       <c r="O484" t="n">
         <v>0</v>
       </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -24913,6 +27333,11 @@
       <c r="O485" t="n">
         <v>0</v>
       </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -24964,6 +27389,11 @@
       <c r="O486" t="n">
         <v>0</v>
       </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -25015,6 +27445,11 @@
       <c r="O487" t="n">
         <v>0</v>
       </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -25066,6 +27501,11 @@
       <c r="O488" t="n">
         <v>0</v>
       </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -25117,6 +27557,11 @@
       <c r="O489" t="n">
         <v>0</v>
       </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -25168,6 +27613,11 @@
       <c r="O490" t="n">
         <v>0</v>
       </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -25219,6 +27669,11 @@
       <c r="O491" t="n">
         <v>0</v>
       </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -25270,6 +27725,11 @@
       <c r="O492" t="n">
         <v>0</v>
       </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -25321,6 +27781,11 @@
       <c r="O493" t="n">
         <v>0</v>
       </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -25372,6 +27837,11 @@
       <c r="O494" t="n">
         <v>0</v>
       </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -25423,6 +27893,11 @@
       <c r="O495" t="n">
         <v>0</v>
       </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -25474,6 +27949,11 @@
       <c r="O496" t="n">
         <v>0</v>
       </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -25525,6 +28005,11 @@
       <c r="O497" t="n">
         <v>0</v>
       </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -25576,6 +28061,11 @@
       <c r="O498" t="n">
         <v>0</v>
       </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -25627,6 +28117,11 @@
       <c r="O499" t="n">
         <v>0</v>
       </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -25678,6 +28173,11 @@
       <c r="O500" t="n">
         <v>0</v>
       </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -25729,6 +28229,11 @@
       <c r="O501" t="n">
         <v>0</v>
       </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -25780,6 +28285,11 @@
       <c r="O502" t="n">
         <v>0</v>
       </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -25831,6 +28341,11 @@
       <c r="O503" t="n">
         <v>0</v>
       </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -25882,6 +28397,11 @@
       <c r="O504" t="n">
         <v>0</v>
       </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -25933,6 +28453,11 @@
       <c r="O505" t="n">
         <v>0</v>
       </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -25984,6 +28509,11 @@
       <c r="O506" t="n">
         <v>0</v>
       </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -26035,6 +28565,11 @@
       <c r="O507" t="n">
         <v>0</v>
       </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -26086,6 +28621,11 @@
       <c r="O508" t="n">
         <v>0</v>
       </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -26137,6 +28677,11 @@
       <c r="O509" t="n">
         <v>0</v>
       </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -26188,6 +28733,11 @@
       <c r="O510" t="n">
         <v>0</v>
       </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -26239,6 +28789,11 @@
       <c r="O511" t="n">
         <v>0</v>
       </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -26290,6 +28845,11 @@
       <c r="O512" t="n">
         <v>0</v>
       </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -26341,6 +28901,11 @@
       <c r="O513" t="n">
         <v>0</v>
       </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -26392,6 +28957,11 @@
       <c r="O514" t="n">
         <v>0</v>
       </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -26443,6 +29013,11 @@
       <c r="O515" t="n">
         <v>0</v>
       </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -26494,6 +29069,11 @@
       <c r="O516" t="n">
         <v>0</v>
       </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -26545,6 +29125,11 @@
       <c r="O517" t="n">
         <v>0</v>
       </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -26596,6 +29181,11 @@
       <c r="O518" t="n">
         <v>0</v>
       </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -26647,6 +29237,11 @@
       <c r="O519" t="n">
         <v>0</v>
       </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -26698,6 +29293,11 @@
       <c r="O520" t="n">
         <v>0</v>
       </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -26749,6 +29349,11 @@
       <c r="O521" t="n">
         <v>0</v>
       </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -26800,6 +29405,11 @@
       <c r="O522" t="n">
         <v>0</v>
       </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -26851,6 +29461,11 @@
       <c r="O523" t="n">
         <v>0</v>
       </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -26902,6 +29517,11 @@
       <c r="O524" t="n">
         <v>0</v>
       </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -26953,6 +29573,11 @@
       <c r="O525" t="n">
         <v>0</v>
       </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -27004,6 +29629,11 @@
       <c r="O526" t="n">
         <v>0</v>
       </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -27055,6 +29685,11 @@
       <c r="O527" t="n">
         <v>0</v>
       </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -27106,6 +29741,11 @@
       <c r="O528" t="n">
         <v>0</v>
       </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -27157,6 +29797,11 @@
       <c r="O529" t="n">
         <v>0</v>
       </c>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -27208,6 +29853,11 @@
       <c r="O530" t="n">
         <v>0</v>
       </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -27259,6 +29909,11 @@
       <c r="O531" t="n">
         <v>0</v>
       </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -27310,6 +29965,11 @@
       <c r="O532" t="n">
         <v>0</v>
       </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -27361,6 +30021,11 @@
       <c r="O533" t="n">
         <v>0</v>
       </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -27412,6 +30077,11 @@
       <c r="O534" t="n">
         <v>0</v>
       </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -27463,6 +30133,11 @@
       <c r="O535" t="n">
         <v>0</v>
       </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -27514,6 +30189,11 @@
       <c r="O536" t="n">
         <v>0</v>
       </c>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -27565,6 +30245,11 @@
       <c r="O537" t="n">
         <v>0</v>
       </c>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -27616,6 +30301,11 @@
       <c r="O538" t="n">
         <v>0</v>
       </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -27667,6 +30357,11 @@
       <c r="O539" t="n">
         <v>0</v>
       </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -27718,6 +30413,11 @@
       <c r="O540" t="n">
         <v>0</v>
       </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -27769,6 +30469,11 @@
       <c r="O541" t="n">
         <v>0</v>
       </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -27820,6 +30525,11 @@
       <c r="O542" t="n">
         <v>0</v>
       </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -27871,6 +30581,11 @@
       <c r="O543" t="n">
         <v>0</v>
       </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -27922,6 +30637,11 @@
       <c r="O544" t="n">
         <v>0</v>
       </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -27973,6 +30693,11 @@
       <c r="O545" t="n">
         <v>0</v>
       </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -28024,6 +30749,11 @@
       <c r="O546" t="n">
         <v>0</v>
       </c>
+      <c r="P546" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -28075,6 +30805,11 @@
       <c r="O547" t="n">
         <v>0</v>
       </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -28126,6 +30861,11 @@
       <c r="O548" t="n">
         <v>0</v>
       </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -28177,6 +30917,11 @@
       <c r="O549" t="n">
         <v>0</v>
       </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -28228,6 +30973,11 @@
       <c r="O550" t="n">
         <v>0</v>
       </c>
+      <c r="P550" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -28279,6 +31029,11 @@
       <c r="O551" t="n">
         <v>0</v>
       </c>
+      <c r="P551" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -28330,6 +31085,11 @@
       <c r="O552" t="n">
         <v>0</v>
       </c>
+      <c r="P552" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -28381,6 +31141,11 @@
       <c r="O553" t="n">
         <v>0</v>
       </c>
+      <c r="P553" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -28432,6 +31197,11 @@
       <c r="O554" t="n">
         <v>0</v>
       </c>
+      <c r="P554" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -28483,6 +31253,11 @@
       <c r="O555" t="n">
         <v>0</v>
       </c>
+      <c r="P555" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -28534,6 +31309,11 @@
       <c r="O556" t="n">
         <v>0</v>
       </c>
+      <c r="P556" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -28585,6 +31365,11 @@
       <c r="O557" t="n">
         <v>0</v>
       </c>
+      <c r="P557" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -28636,6 +31421,11 @@
       <c r="O558" t="n">
         <v>0</v>
       </c>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -28687,6 +31477,11 @@
       <c r="O559" t="n">
         <v>0</v>
       </c>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -28738,6 +31533,11 @@
       <c r="O560" t="n">
         <v>0</v>
       </c>
+      <c r="P560" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -28789,6 +31589,11 @@
       <c r="O561" t="n">
         <v>0</v>
       </c>
+      <c r="P561" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -28840,6 +31645,11 @@
       <c r="O562" t="n">
         <v>0</v>
       </c>
+      <c r="P562" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -28891,6 +31701,11 @@
       <c r="O563" t="n">
         <v>0</v>
       </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -28942,6 +31757,11 @@
       <c r="O564" t="n">
         <v>0</v>
       </c>
+      <c r="P564" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -28993,6 +31813,11 @@
       <c r="O565" t="n">
         <v>0</v>
       </c>
+      <c r="P565" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -29044,6 +31869,11 @@
       <c r="O566" t="n">
         <v>0</v>
       </c>
+      <c r="P566" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -29095,6 +31925,11 @@
       <c r="O567" t="n">
         <v>0</v>
       </c>
+      <c r="P567" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -29146,6 +31981,11 @@
       <c r="O568" t="n">
         <v>0</v>
       </c>
+      <c r="P568" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -29197,6 +32037,11 @@
       <c r="O569" t="n">
         <v>0</v>
       </c>
+      <c r="P569" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -29248,6 +32093,11 @@
       <c r="O570" t="n">
         <v>0</v>
       </c>
+      <c r="P570" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -29299,6 +32149,11 @@
       <c r="O571" t="n">
         <v>0</v>
       </c>
+      <c r="P571" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -29350,6 +32205,11 @@
       <c r="O572" t="n">
         <v>0</v>
       </c>
+      <c r="P572" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -29401,6 +32261,11 @@
       <c r="O573" t="n">
         <v>0</v>
       </c>
+      <c r="P573" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -29452,6 +32317,11 @@
       <c r="O574" t="n">
         <v>0</v>
       </c>
+      <c r="P574" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -29503,6 +32373,11 @@
       <c r="O575" t="n">
         <v>0</v>
       </c>
+      <c r="P575" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -29554,6 +32429,11 @@
       <c r="O576" t="n">
         <v>0</v>
       </c>
+      <c r="P576" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -29605,6 +32485,11 @@
       <c r="O577" t="n">
         <v>0</v>
       </c>
+      <c r="P577" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -29656,6 +32541,11 @@
       <c r="O578" t="n">
         <v>0</v>
       </c>
+      <c r="P578" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -29707,6 +32597,11 @@
       <c r="O579" t="n">
         <v>0</v>
       </c>
+      <c r="P579" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -29758,6 +32653,11 @@
       <c r="O580" t="n">
         <v>0</v>
       </c>
+      <c r="P580" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -29809,6 +32709,11 @@
       <c r="O581" t="n">
         <v>0</v>
       </c>
+      <c r="P581" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -29860,6 +32765,11 @@
       <c r="O582" t="n">
         <v>0</v>
       </c>
+      <c r="P582" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -29911,6 +32821,11 @@
       <c r="O583" t="n">
         <v>0</v>
       </c>
+      <c r="P583" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -29962,6 +32877,11 @@
       <c r="O584" t="n">
         <v>0</v>
       </c>
+      <c r="P584" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -30013,6 +32933,11 @@
       <c r="O585" t="n">
         <v>0</v>
       </c>
+      <c r="P585" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -30064,6 +32989,11 @@
       <c r="O586" t="n">
         <v>0</v>
       </c>
+      <c r="P586" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -30115,6 +33045,11 @@
       <c r="O587" t="n">
         <v>0</v>
       </c>
+      <c r="P587" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -30166,6 +33101,11 @@
       <c r="O588" t="n">
         <v>0</v>
       </c>
+      <c r="P588" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -30217,6 +33157,11 @@
       <c r="O589" t="n">
         <v>0</v>
       </c>
+      <c r="P589" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -30268,6 +33213,11 @@
       <c r="O590" t="n">
         <v>0</v>
       </c>
+      <c r="P590" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -30319,6 +33269,11 @@
       <c r="O591" t="n">
         <v>0</v>
       </c>
+      <c r="P591" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -30370,6 +33325,11 @@
       <c r="O592" t="n">
         <v>0</v>
       </c>
+      <c r="P592" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -30421,6 +33381,11 @@
       <c r="O593" t="n">
         <v>0</v>
       </c>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -30472,6 +33437,11 @@
       <c r="O594" t="n">
         <v>0</v>
       </c>
+      <c r="P594" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -30523,6 +33493,11 @@
       <c r="O595" t="n">
         <v>0</v>
       </c>
+      <c r="P595" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -30574,6 +33549,11 @@
       <c r="O596" t="n">
         <v>0</v>
       </c>
+      <c r="P596" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -30625,6 +33605,11 @@
       <c r="O597" t="n">
         <v>0</v>
       </c>
+      <c r="P597" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -30676,6 +33661,11 @@
       <c r="O598" t="n">
         <v>0</v>
       </c>
+      <c r="P598" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -30727,6 +33717,11 @@
       <c r="O599" t="n">
         <v>0</v>
       </c>
+      <c r="P599" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -30778,6 +33773,11 @@
       <c r="O600" t="n">
         <v>0</v>
       </c>
+      <c r="P600" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -30829,6 +33829,11 @@
       <c r="O601" t="n">
         <v>0</v>
       </c>
+      <c r="P601" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -30880,6 +33885,11 @@
       <c r="O602" t="n">
         <v>0</v>
       </c>
+      <c r="P602" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -30931,6 +33941,11 @@
       <c r="O603" t="n">
         <v>0</v>
       </c>
+      <c r="P603" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -30982,6 +33997,11 @@
       <c r="O604" t="n">
         <v>0</v>
       </c>
+      <c r="P604" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -31033,6 +34053,11 @@
       <c r="O605" t="n">
         <v>0</v>
       </c>
+      <c r="P605" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -31084,6 +34109,11 @@
       <c r="O606" t="n">
         <v>0</v>
       </c>
+      <c r="P606" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -31135,6 +34165,11 @@
       <c r="O607" t="n">
         <v>0</v>
       </c>
+      <c r="P607" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -31186,6 +34221,11 @@
       <c r="O608" t="n">
         <v>0</v>
       </c>
+      <c r="P608" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -31237,6 +34277,11 @@
       <c r="O609" t="n">
         <v>0</v>
       </c>
+      <c r="P609" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -31288,6 +34333,11 @@
       <c r="O610" t="n">
         <v>0</v>
       </c>
+      <c r="P610" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -31339,6 +34389,11 @@
       <c r="O611" t="n">
         <v>0</v>
       </c>
+      <c r="P611" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -31390,6 +34445,11 @@
       <c r="O612" t="n">
         <v>0</v>
       </c>
+      <c r="P612" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -31441,6 +34501,11 @@
       <c r="O613" t="n">
         <v>0</v>
       </c>
+      <c r="P613" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -31492,6 +34557,11 @@
       <c r="O614" t="n">
         <v>0</v>
       </c>
+      <c r="P614" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -31543,6 +34613,11 @@
       <c r="O615" t="n">
         <v>0</v>
       </c>
+      <c r="P615" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -31594,6 +34669,11 @@
       <c r="O616" t="n">
         <v>0</v>
       </c>
+      <c r="P616" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -31645,6 +34725,11 @@
       <c r="O617" t="n">
         <v>0</v>
       </c>
+      <c r="P617" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -31696,6 +34781,11 @@
       <c r="O618" t="n">
         <v>0</v>
       </c>
+      <c r="P618" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -31747,6 +34837,11 @@
       <c r="O619" t="n">
         <v>0</v>
       </c>
+      <c r="P619" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -31798,6 +34893,11 @@
       <c r="O620" t="n">
         <v>0</v>
       </c>
+      <c r="P620" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -31849,6 +34949,11 @@
       <c r="O621" t="n">
         <v>0</v>
       </c>
+      <c r="P621" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -31900,6 +35005,11 @@
       <c r="O622" t="n">
         <v>0</v>
       </c>
+      <c r="P622" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -31951,6 +35061,11 @@
       <c r="O623" t="n">
         <v>0</v>
       </c>
+      <c r="P623" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -32002,6 +35117,11 @@
       <c r="O624" t="n">
         <v>0</v>
       </c>
+      <c r="P624" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -32053,6 +35173,11 @@
       <c r="O625" t="n">
         <v>0</v>
       </c>
+      <c r="P625" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -32104,6 +35229,11 @@
       <c r="O626" t="n">
         <v>0</v>
       </c>
+      <c r="P626" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -32155,6 +35285,11 @@
       <c r="O627" t="n">
         <v>0</v>
       </c>
+      <c r="P627" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -32206,6 +35341,11 @@
       <c r="O628" t="n">
         <v>0</v>
       </c>
+      <c r="P628" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -32257,6 +35397,11 @@
       <c r="O629" t="n">
         <v>0</v>
       </c>
+      <c r="P629" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -32308,6 +35453,11 @@
       <c r="O630" t="n">
         <v>0</v>
       </c>
+      <c r="P630" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -32359,6 +35509,11 @@
       <c r="O631" t="n">
         <v>0</v>
       </c>
+      <c r="P631" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -32410,6 +35565,11 @@
       <c r="O632" t="n">
         <v>0</v>
       </c>
+      <c r="P632" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -32461,6 +35621,11 @@
       <c r="O633" t="n">
         <v>0</v>
       </c>
+      <c r="P633" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -32512,6 +35677,11 @@
       <c r="O634" t="n">
         <v>0</v>
       </c>
+      <c r="P634" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -32563,6 +35733,11 @@
       <c r="O635" t="n">
         <v>0</v>
       </c>
+      <c r="P635" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -32614,6 +35789,11 @@
       <c r="O636" t="n">
         <v>0</v>
       </c>
+      <c r="P636" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -32665,6 +35845,11 @@
       <c r="O637" t="n">
         <v>0</v>
       </c>
+      <c r="P637" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -32716,6 +35901,11 @@
       <c r="O638" t="n">
         <v>0</v>
       </c>
+      <c r="P638" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -32767,6 +35957,11 @@
       <c r="O639" t="n">
         <v>0</v>
       </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -32818,6 +36013,11 @@
       <c r="O640" t="n">
         <v>0</v>
       </c>
+      <c r="P640" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -32869,6 +36069,11 @@
       <c r="O641" t="n">
         <v>0</v>
       </c>
+      <c r="P641" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -32920,6 +36125,11 @@
       <c r="O642" t="n">
         <v>0</v>
       </c>
+      <c r="P642" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -32971,6 +36181,11 @@
       <c r="O643" t="n">
         <v>0</v>
       </c>
+      <c r="P643" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -33022,6 +36237,11 @@
       <c r="O644" t="n">
         <v>0</v>
       </c>
+      <c r="P644" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -33073,6 +36293,11 @@
       <c r="O645" t="n">
         <v>0</v>
       </c>
+      <c r="P645" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -33124,6 +36349,11 @@
       <c r="O646" t="n">
         <v>0</v>
       </c>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -33175,6 +36405,11 @@
       <c r="O647" t="n">
         <v>0</v>
       </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -33226,6 +36461,11 @@
       <c r="O648" t="n">
         <v>0</v>
       </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -33277,6 +36517,11 @@
       <c r="O649" t="n">
         <v>0</v>
       </c>
+      <c r="P649" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -33328,6 +36573,11 @@
       <c r="O650" t="n">
         <v>0</v>
       </c>
+      <c r="P650" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -33379,6 +36629,11 @@
       <c r="O651" t="n">
         <v>0</v>
       </c>
+      <c r="P651" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -33430,6 +36685,11 @@
       <c r="O652" t="n">
         <v>0</v>
       </c>
+      <c r="P652" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -33481,6 +36741,11 @@
       <c r="O653" t="n">
         <v>0</v>
       </c>
+      <c r="P653" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -33532,6 +36797,11 @@
       <c r="O654" t="n">
         <v>0</v>
       </c>
+      <c r="P654" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -33583,6 +36853,11 @@
       <c r="O655" t="n">
         <v>0</v>
       </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -33634,6 +36909,11 @@
       <c r="O656" t="n">
         <v>0</v>
       </c>
+      <c r="P656" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -33685,6 +36965,11 @@
       <c r="O657" t="n">
         <v>0</v>
       </c>
+      <c r="P657" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -33736,6 +37021,11 @@
       <c r="O658" t="n">
         <v>0</v>
       </c>
+      <c r="P658" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -33787,6 +37077,11 @@
       <c r="O659" t="n">
         <v>0</v>
       </c>
+      <c r="P659" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -33838,6 +37133,11 @@
       <c r="O660" t="n">
         <v>0</v>
       </c>
+      <c r="P660" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -33889,6 +37189,11 @@
       <c r="O661" t="n">
         <v>0</v>
       </c>
+      <c r="P661" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -33940,6 +37245,11 @@
       <c r="O662" t="n">
         <v>0</v>
       </c>
+      <c r="P662" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -33991,6 +37301,11 @@
       <c r="O663" t="n">
         <v>0</v>
       </c>
+      <c r="P663" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -34042,6 +37357,11 @@
       <c r="O664" t="n">
         <v>0</v>
       </c>
+      <c r="P664" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -34093,6 +37413,11 @@
       <c r="O665" t="n">
         <v>0</v>
       </c>
+      <c r="P665" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -34144,6 +37469,11 @@
       <c r="O666" t="n">
         <v>0</v>
       </c>
+      <c r="P666" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -34195,6 +37525,11 @@
       <c r="O667" t="n">
         <v>0</v>
       </c>
+      <c r="P667" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -34246,6 +37581,11 @@
       <c r="O668" t="n">
         <v>0</v>
       </c>
+      <c r="P668" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -34297,6 +37637,11 @@
       <c r="O669" t="n">
         <v>0</v>
       </c>
+      <c r="P669" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -34348,6 +37693,11 @@
       <c r="O670" t="n">
         <v>0</v>
       </c>
+      <c r="P670" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -34399,6 +37749,11 @@
       <c r="O671" t="n">
         <v>0</v>
       </c>
+      <c r="P671" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -34450,6 +37805,11 @@
       <c r="O672" t="n">
         <v>0</v>
       </c>
+      <c r="P672" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -34501,6 +37861,11 @@
       <c r="O673" t="n">
         <v>0</v>
       </c>
+      <c r="P673" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -34552,6 +37917,11 @@
       <c r="O674" t="n">
         <v>0</v>
       </c>
+      <c r="P674" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -34603,6 +37973,11 @@
       <c r="O675" t="n">
         <v>0</v>
       </c>
+      <c r="P675" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -34654,6 +38029,11 @@
       <c r="O676" t="n">
         <v>0</v>
       </c>
+      <c r="P676" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -34705,6 +38085,11 @@
       <c r="O677" t="n">
         <v>0</v>
       </c>
+      <c r="P677" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -34756,6 +38141,11 @@
       <c r="O678" t="n">
         <v>0</v>
       </c>
+      <c r="P678" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -34807,6 +38197,11 @@
       <c r="O679" t="n">
         <v>0</v>
       </c>
+      <c r="P679" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -34858,6 +38253,11 @@
       <c r="O680" t="n">
         <v>0</v>
       </c>
+      <c r="P680" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -34909,6 +38309,11 @@
       <c r="O681" t="n">
         <v>0</v>
       </c>
+      <c r="P681" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -34960,6 +38365,11 @@
       <c r="O682" t="n">
         <v>0</v>
       </c>
+      <c r="P682" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -35011,6 +38421,11 @@
       <c r="O683" t="n">
         <v>0</v>
       </c>
+      <c r="P683" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -35062,6 +38477,11 @@
       <c r="O684" t="n">
         <v>0</v>
       </c>
+      <c r="P684" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -35113,6 +38533,11 @@
       <c r="O685" t="n">
         <v>0</v>
       </c>
+      <c r="P685" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -35164,6 +38589,11 @@
       <c r="O686" t="n">
         <v>0</v>
       </c>
+      <c r="P686" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -35215,6 +38645,11 @@
       <c r="O687" t="n">
         <v>0</v>
       </c>
+      <c r="P687" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -35266,6 +38701,11 @@
       <c r="O688" t="n">
         <v>0</v>
       </c>
+      <c r="P688" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -35317,6 +38757,11 @@
       <c r="O689" t="n">
         <v>0</v>
       </c>
+      <c r="P689" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -35368,6 +38813,11 @@
       <c r="O690" t="n">
         <v>0</v>
       </c>
+      <c r="P690" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -35419,6 +38869,11 @@
       <c r="O691" t="n">
         <v>0</v>
       </c>
+      <c r="P691" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -35470,6 +38925,11 @@
       <c r="O692" t="n">
         <v>0</v>
       </c>
+      <c r="P692" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -35521,6 +38981,11 @@
       <c r="O693" t="n">
         <v>0</v>
       </c>
+      <c r="P693" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -35572,6 +39037,11 @@
       <c r="O694" t="n">
         <v>0</v>
       </c>
+      <c r="P694" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -35623,6 +39093,11 @@
       <c r="O695" t="n">
         <v>0</v>
       </c>
+      <c r="P695" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -35674,6 +39149,11 @@
       <c r="O696" t="n">
         <v>0</v>
       </c>
+      <c r="P696" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -35725,6 +39205,11 @@
       <c r="O697" t="n">
         <v>0</v>
       </c>
+      <c r="P697" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -35776,6 +39261,11 @@
       <c r="O698" t="n">
         <v>0</v>
       </c>
+      <c r="P698" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -35827,6 +39317,11 @@
       <c r="O699" t="n">
         <v>0</v>
       </c>
+      <c r="P699" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -35878,6 +39373,11 @@
       <c r="O700" t="n">
         <v>0</v>
       </c>
+      <c r="P700" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -35928,6 +39428,11 @@
       </c>
       <c r="O701" t="n">
         <v>0</v>
+      </c>
+      <c r="P701" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
     </row>
   </sheetData>
